--- a/excel_data/SWE_Student_List.xlsx
+++ b/excel_data/SWE_Student_List.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\E Drive\Django_projects\dev\semester_preregistration_portal\excel_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Web Development\Django\Pre-Registration Site\semester_preregistration_system\excel_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22118" windowHeight="8686"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22125" windowHeight="8685"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4359" uniqueCount="3019">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4363" uniqueCount="3021">
   <si>
     <t>Student ID</t>
   </si>
@@ -9081,13 +9081,19 @@
   </si>
   <si>
     <t>Zarin@diu.edu.bd</t>
+  </si>
+  <si>
+    <t>Md. Ashiqur Rahaman Dipto</t>
+  </si>
+  <si>
+    <t>ashiqur35-2149@diu.edu.bd</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -9114,6 +9120,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -9132,12 +9146,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -9146,8 +9161,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Hyperlink 2" xfId="2"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
@@ -9428,21 +9445,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1090"/>
+  <dimension ref="A1:D1091"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="13" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.19921875" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" customWidth="1"/>
     <col min="2" max="2" width="29" customWidth="1"/>
-    <col min="3" max="3" width="31.296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -9456,21 +9473,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -9484,7 +9501,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -9498,7 +9515,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -9512,7 +9529,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -9526,7 +9543,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -9540,7 +9557,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -9554,7 +9571,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -9568,7 +9585,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -9582,7 +9599,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -9596,7 +9613,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -9610,7 +9627,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -9624,7 +9641,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -9638,7 +9655,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>44</v>
       </c>
@@ -9652,7 +9669,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>47</v>
       </c>
@@ -9666,7 +9683,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>50</v>
       </c>
@@ -9680,7 +9697,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>53</v>
       </c>
@@ -9694,7 +9711,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>56</v>
       </c>
@@ -9708,7 +9725,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>59</v>
       </c>
@@ -9722,7 +9739,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>62</v>
       </c>
@@ -9736,7 +9753,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>65</v>
       </c>
@@ -9750,7 +9767,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>68</v>
       </c>
@@ -9764,7 +9781,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>71</v>
       </c>
@@ -9778,7 +9795,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>74</v>
       </c>
@@ -9792,7 +9809,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>77</v>
       </c>
@@ -9806,7 +9823,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>80</v>
       </c>
@@ -9820,7 +9837,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>83</v>
       </c>
@@ -9834,7 +9851,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>86</v>
       </c>
@@ -9848,7 +9865,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>89</v>
       </c>
@@ -9862,7 +9879,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>92</v>
       </c>
@@ -9876,7 +9893,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>95</v>
       </c>
@@ -9890,7 +9907,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>98</v>
       </c>
@@ -9904,7 +9921,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>101</v>
       </c>
@@ -9918,7 +9935,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>104</v>
       </c>
@@ -9932,7 +9949,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>107</v>
       </c>
@@ -9946,7 +9963,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>110</v>
       </c>
@@ -9960,7 +9977,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>114</v>
       </c>
@@ -9974,7 +9991,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>117</v>
       </c>
@@ -9988,7 +10005,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>120</v>
       </c>
@@ -10002,7 +10019,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>123</v>
       </c>
@@ -10016,7 +10033,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>126</v>
       </c>
@@ -10030,7 +10047,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>129</v>
       </c>
@@ -10044,7 +10061,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>132</v>
       </c>
@@ -10058,7 +10075,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>135</v>
       </c>
@@ -10072,7 +10089,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>138</v>
       </c>
@@ -10086,7 +10103,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>141</v>
       </c>
@@ -10100,7 +10117,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>144</v>
       </c>
@@ -10114,7 +10131,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>147</v>
       </c>
@@ -10128,7 +10145,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>150</v>
       </c>
@@ -10142,7 +10159,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>153</v>
       </c>
@@ -10156,7 +10173,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>156</v>
       </c>
@@ -10170,7 +10187,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>159</v>
       </c>
@@ -10184,7 +10201,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>162</v>
       </c>
@@ -10198,7 +10215,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>165</v>
       </c>
@@ -10212,7 +10229,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>168</v>
       </c>
@@ -10226,7 +10243,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>171</v>
       </c>
@@ -10240,7 +10257,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>174</v>
       </c>
@@ -10254,7 +10271,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>177</v>
       </c>
@@ -10268,7 +10285,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>180</v>
       </c>
@@ -10282,7 +10299,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>183</v>
       </c>
@@ -10296,7 +10313,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>186</v>
       </c>
@@ -10310,7 +10327,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>189</v>
       </c>
@@ -10324,7 +10341,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>192</v>
       </c>
@@ -10338,7 +10355,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>195</v>
       </c>
@@ -10352,7 +10369,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>198</v>
       </c>
@@ -10366,7 +10383,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>201</v>
       </c>
@@ -10380,7 +10397,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>204</v>
       </c>
@@ -10394,7 +10411,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>207</v>
       </c>
@@ -10408,7 +10425,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>210</v>
       </c>
@@ -10422,7 +10439,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>213</v>
       </c>
@@ -10436,7 +10453,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>216</v>
       </c>
@@ -10450,7 +10467,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>219</v>
       </c>
@@ -10464,7 +10481,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>223</v>
       </c>
@@ -10478,7 +10495,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>226</v>
       </c>
@@ -10492,7 +10509,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>229</v>
       </c>
@@ -10506,7 +10523,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>232</v>
       </c>
@@ -10520,7 +10537,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>235</v>
       </c>
@@ -10534,7 +10551,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>238</v>
       </c>
@@ -10548,7 +10565,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>241</v>
       </c>
@@ -10562,7 +10579,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>244</v>
       </c>
@@ -10576,7 +10593,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>247</v>
       </c>
@@ -10590,7 +10607,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>250</v>
       </c>
@@ -10604,7 +10621,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>253</v>
       </c>
@@ -10618,7 +10635,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>256</v>
       </c>
@@ -10632,7 +10649,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>259</v>
       </c>
@@ -10646,7 +10663,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>262</v>
       </c>
@@ -10660,7 +10677,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>265</v>
       </c>
@@ -10674,7 +10691,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>268</v>
       </c>
@@ -10688,7 +10705,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>271</v>
       </c>
@@ -10702,7 +10719,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>274</v>
       </c>
@@ -10716,7 +10733,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>277</v>
       </c>
@@ -10730,7 +10747,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>280</v>
       </c>
@@ -10744,7 +10761,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>283</v>
       </c>
@@ -10758,7 +10775,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>286</v>
       </c>
@@ -10772,7 +10789,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>289</v>
       </c>
@@ -10786,7 +10803,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>292</v>
       </c>
@@ -10800,7 +10817,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>295</v>
       </c>
@@ -10814,7 +10831,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>298</v>
       </c>
@@ -10828,7 +10845,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>301</v>
       </c>
@@ -10842,7 +10859,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>304</v>
       </c>
@@ -10856,7 +10873,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>307</v>
       </c>
@@ -10870,7 +10887,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>310</v>
       </c>
@@ -10884,7 +10901,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>313</v>
       </c>
@@ -10898,7 +10915,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>316</v>
       </c>
@@ -10912,7 +10929,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>319</v>
       </c>
@@ -10926,7 +10943,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>322</v>
       </c>
@@ -10940,7 +10957,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>325</v>
       </c>
@@ -10954,7 +10971,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>328</v>
       </c>
@@ -10968,7 +10985,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>331</v>
       </c>
@@ -10982,7 +10999,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>334</v>
       </c>
@@ -10996,7 +11013,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>337</v>
       </c>
@@ -11010,7 +11027,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>340</v>
       </c>
@@ -11024,7 +11041,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>343</v>
       </c>
@@ -11038,7 +11055,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>346</v>
       </c>
@@ -11052,7 +11069,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>349</v>
       </c>
@@ -11066,7 +11083,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>352</v>
       </c>
@@ -11080,7 +11097,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>356</v>
       </c>
@@ -11094,7 +11111,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>359</v>
       </c>
@@ -11108,7 +11125,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>362</v>
       </c>
@@ -11122,7 +11139,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>365</v>
       </c>
@@ -11136,7 +11153,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>368</v>
       </c>
@@ -11150,7 +11167,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>371</v>
       </c>
@@ -11164,7 +11181,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>374</v>
       </c>
@@ -11178,7 +11195,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>377</v>
       </c>
@@ -11192,7 +11209,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>380</v>
       </c>
@@ -11206,7 +11223,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>383</v>
       </c>
@@ -11220,7 +11237,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>386</v>
       </c>
@@ -11234,7 +11251,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>389</v>
       </c>
@@ -11248,7 +11265,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>392</v>
       </c>
@@ -11262,7 +11279,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>395</v>
       </c>
@@ -11276,7 +11293,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>398</v>
       </c>
@@ -11290,7 +11307,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>401</v>
       </c>
@@ -11304,7 +11321,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>404</v>
       </c>
@@ -11318,7 +11335,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>407</v>
       </c>
@@ -11332,7 +11349,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>410</v>
       </c>
@@ -11346,7 +11363,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>413</v>
       </c>
@@ -11360,7 +11377,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>416</v>
       </c>
@@ -11374,7 +11391,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>419</v>
       </c>
@@ -11388,7 +11405,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>422</v>
       </c>
@@ -11402,7 +11419,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>425</v>
       </c>
@@ -11416,7 +11433,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>428</v>
       </c>
@@ -11430,7 +11447,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>431</v>
       </c>
@@ -11444,7 +11461,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>434</v>
       </c>
@@ -11458,7 +11475,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>437</v>
       </c>
@@ -11472,7 +11489,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>440</v>
       </c>
@@ -11486,7 +11503,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>443</v>
       </c>
@@ -11500,7 +11517,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>446</v>
       </c>
@@ -11514,7 +11531,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>449</v>
       </c>
@@ -11528,7 +11545,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>452</v>
       </c>
@@ -11542,7 +11559,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>455</v>
       </c>
@@ -11556,7 +11573,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>458</v>
       </c>
@@ -11570,7 +11587,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>461</v>
       </c>
@@ -11584,7 +11601,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>464</v>
       </c>
@@ -11598,7 +11615,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>467</v>
       </c>
@@ -11612,7 +11629,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>471</v>
       </c>
@@ -11626,7 +11643,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>474</v>
       </c>
@@ -11640,7 +11657,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>477</v>
       </c>
@@ -11654,7 +11671,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>480</v>
       </c>
@@ -11668,7 +11685,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>483</v>
       </c>
@@ -11682,7 +11699,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>486</v>
       </c>
@@ -11696,7 +11713,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>489</v>
       </c>
@@ -11710,7 +11727,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>492</v>
       </c>
@@ -11724,7 +11741,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>495</v>
       </c>
@@ -11738,7 +11755,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>498</v>
       </c>
@@ -11752,7 +11769,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>501</v>
       </c>
@@ -11766,7 +11783,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>504</v>
       </c>
@@ -11780,7 +11797,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>507</v>
       </c>
@@ -11794,7 +11811,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>510</v>
       </c>
@@ -11808,7 +11825,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>513</v>
       </c>
@@ -11822,7 +11839,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>516</v>
       </c>
@@ -11836,7 +11853,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>519</v>
       </c>
@@ -11850,7 +11867,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>522</v>
       </c>
@@ -11864,7 +11881,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>525</v>
       </c>
@@ -11878,7 +11895,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>528</v>
       </c>
@@ -11892,7 +11909,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>531</v>
       </c>
@@ -11906,7 +11923,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>534</v>
       </c>
@@ -11920,7 +11937,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>537</v>
       </c>
@@ -11934,7 +11951,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>540</v>
       </c>
@@ -11948,7 +11965,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>543</v>
       </c>
@@ -11962,7 +11979,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>546</v>
       </c>
@@ -11976,7 +11993,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>549</v>
       </c>
@@ -11990,7 +12007,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>552</v>
       </c>
@@ -12004,7 +12021,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>555</v>
       </c>
@@ -12018,7 +12035,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>558</v>
       </c>
@@ -12032,7 +12049,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>561</v>
       </c>
@@ -12046,7 +12063,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>564</v>
       </c>
@@ -12060,7 +12077,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>567</v>
       </c>
@@ -12074,7 +12091,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>570</v>
       </c>
@@ -12088,7 +12105,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>573</v>
       </c>
@@ -12102,7 +12119,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>576</v>
       </c>
@@ -12116,7 +12133,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>579</v>
       </c>
@@ -12130,7 +12147,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>582</v>
       </c>
@@ -12144,7 +12161,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>585</v>
       </c>
@@ -12158,7 +12175,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>588</v>
       </c>
@@ -12172,7 +12189,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>591</v>
       </c>
@@ -12186,7 +12203,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>594</v>
       </c>
@@ -12200,7 +12217,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>597</v>
       </c>
@@ -12214,7 +12231,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>601</v>
       </c>
@@ -12228,7 +12245,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>604</v>
       </c>
@@ -12242,7 +12259,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>607</v>
       </c>
@@ -12256,7 +12273,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>610</v>
       </c>
@@ -12270,7 +12287,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>613</v>
       </c>
@@ -12284,7 +12301,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>616</v>
       </c>
@@ -12298,7 +12315,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>619</v>
       </c>
@@ -12312,7 +12329,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>622</v>
       </c>
@@ -12326,7 +12343,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>625</v>
       </c>
@@ -12340,7 +12357,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>628</v>
       </c>
@@ -12354,7 +12371,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>631</v>
       </c>
@@ -12368,7 +12385,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>634</v>
       </c>
@@ -12382,7 +12399,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>637</v>
       </c>
@@ -12396,7 +12413,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>640</v>
       </c>
@@ -12410,7 +12427,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>643</v>
       </c>
@@ -12424,7 +12441,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>646</v>
       </c>
@@ -12438,7 +12455,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>649</v>
       </c>
@@ -12452,7 +12469,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>471</v>
       </c>
@@ -12466,7 +12483,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>652</v>
       </c>
@@ -12480,7 +12497,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>655</v>
       </c>
@@ -12494,7 +12511,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>658</v>
       </c>
@@ -12508,7 +12525,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>661</v>
       </c>
@@ -12522,7 +12539,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>664</v>
       </c>
@@ -12536,7 +12553,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>667</v>
       </c>
@@ -12550,7 +12567,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>670</v>
       </c>
@@ -12564,7 +12581,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>673</v>
       </c>
@@ -12578,7 +12595,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>676</v>
       </c>
@@ -12592,7 +12609,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>679</v>
       </c>
@@ -12606,7 +12623,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>682</v>
       </c>
@@ -12620,7 +12637,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>685</v>
       </c>
@@ -12634,7 +12651,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>688</v>
       </c>
@@ -12648,7 +12665,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>691</v>
       </c>
@@ -12662,7 +12679,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>695</v>
       </c>
@@ -12676,7 +12693,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>698</v>
       </c>
@@ -12690,7 +12707,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>701</v>
       </c>
@@ -12704,7 +12721,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>704</v>
       </c>
@@ -12718,7 +12735,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>707</v>
       </c>
@@ -12732,7 +12749,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>710</v>
       </c>
@@ -12746,7 +12763,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>713</v>
       </c>
@@ -12760,7 +12777,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>716</v>
       </c>
@@ -12774,7 +12791,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>719</v>
       </c>
@@ -12788,7 +12805,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>722</v>
       </c>
@@ -12802,7 +12819,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>725</v>
       </c>
@@ -12816,7 +12833,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>728</v>
       </c>
@@ -12830,7 +12847,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>731</v>
       </c>
@@ -12844,7 +12861,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>734</v>
       </c>
@@ -12858,7 +12875,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>737</v>
       </c>
@@ -12872,7 +12889,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>740</v>
       </c>
@@ -12886,7 +12903,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>743</v>
       </c>
@@ -12900,7 +12917,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>746</v>
       </c>
@@ -12914,7 +12931,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>749</v>
       </c>
@@ -12928,7 +12945,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>752</v>
       </c>
@@ -12942,7 +12959,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>755</v>
       </c>
@@ -12956,7 +12973,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>757</v>
       </c>
@@ -12970,7 +12987,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>760</v>
       </c>
@@ -12984,7 +13001,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>763</v>
       </c>
@@ -12998,7 +13015,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>766</v>
       </c>
@@ -13012,7 +13029,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>769</v>
       </c>
@@ -13026,7 +13043,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>772</v>
       </c>
@@ -13040,7 +13057,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>775</v>
       </c>
@@ -13054,7 +13071,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>778</v>
       </c>
@@ -13068,7 +13085,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>781</v>
       </c>
@@ -13082,7 +13099,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>784</v>
       </c>
@@ -13096,7 +13113,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>787</v>
       </c>
@@ -13110,7 +13127,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>790</v>
       </c>
@@ -13124,7 +13141,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>793</v>
       </c>
@@ -13138,7 +13155,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>796</v>
       </c>
@@ -13152,7 +13169,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>799</v>
       </c>
@@ -13166,7 +13183,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>802</v>
       </c>
@@ -13180,7 +13197,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>805</v>
       </c>
@@ -13194,7 +13211,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>808</v>
       </c>
@@ -13208,7 +13225,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>811</v>
       </c>
@@ -13222,7 +13239,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>815</v>
       </c>
@@ -13236,7 +13253,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>818</v>
       </c>
@@ -13250,7 +13267,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>821</v>
       </c>
@@ -13264,7 +13281,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>824</v>
       </c>
@@ -13278,7 +13295,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>827</v>
       </c>
@@ -13292,7 +13309,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>830</v>
       </c>
@@ -13306,7 +13323,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>833</v>
       </c>
@@ -13320,7 +13337,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>836</v>
       </c>
@@ -13334,7 +13351,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>839</v>
       </c>
@@ -13348,7 +13365,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>842</v>
       </c>
@@ -13362,7 +13379,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>845</v>
       </c>
@@ -13376,7 +13393,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>848</v>
       </c>
@@ -13390,7 +13407,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>851</v>
       </c>
@@ -13404,7 +13421,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>854</v>
       </c>
@@ -13418,7 +13435,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>857</v>
       </c>
@@ -13432,7 +13449,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>860</v>
       </c>
@@ -13446,7 +13463,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>863</v>
       </c>
@@ -13460,7 +13477,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>866</v>
       </c>
@@ -13474,7 +13491,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>869</v>
       </c>
@@ -13488,7 +13505,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>872</v>
       </c>
@@ -13502,7 +13519,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>875</v>
       </c>
@@ -13516,7 +13533,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>878</v>
       </c>
@@ -13530,7 +13547,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>881</v>
       </c>
@@ -13544,7 +13561,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>884</v>
       </c>
@@ -13558,7 +13575,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>887</v>
       </c>
@@ -13572,7 +13589,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>890</v>
       </c>
@@ -13586,7 +13603,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>893</v>
       </c>
@@ -13600,7 +13617,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>896</v>
       </c>
@@ -13614,7 +13631,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>899</v>
       </c>
@@ -13628,7 +13645,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>902</v>
       </c>
@@ -13642,7 +13659,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>905</v>
       </c>
@@ -13656,7 +13673,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>908</v>
       </c>
@@ -13670,7 +13687,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>911</v>
       </c>
@@ -13684,7 +13701,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>914</v>
       </c>
@@ -13698,7 +13715,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>917</v>
       </c>
@@ -13712,7 +13729,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>920</v>
       </c>
@@ -13726,7 +13743,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>923</v>
       </c>
@@ -13740,7 +13757,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>926</v>
       </c>
@@ -13754,7 +13771,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>929</v>
       </c>
@@ -13768,7 +13785,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>932</v>
       </c>
@@ -13782,7 +13799,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>935</v>
       </c>
@@ -13796,7 +13813,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>938</v>
       </c>
@@ -13810,7 +13827,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>941</v>
       </c>
@@ -13824,7 +13841,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>944</v>
       </c>
@@ -13838,7 +13855,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>947</v>
       </c>
@@ -13852,7 +13869,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>950</v>
       </c>
@@ -13866,7 +13883,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>953</v>
       </c>
@@ -13880,7 +13897,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>956</v>
       </c>
@@ -13894,7 +13911,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>959</v>
       </c>
@@ -13908,7 +13925,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>962</v>
       </c>
@@ -13922,7 +13939,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>965</v>
       </c>
@@ -13936,7 +13953,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>968</v>
       </c>
@@ -13950,7 +13967,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>971</v>
       </c>
@@ -13964,7 +13981,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>974</v>
       </c>
@@ -13978,7 +13995,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>977</v>
       </c>
@@ -13992,7 +14009,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>980</v>
       </c>
@@ -14006,7 +14023,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>983</v>
       </c>
@@ -14020,7 +14037,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>986</v>
       </c>
@@ -14034,7 +14051,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>989</v>
       </c>
@@ -14048,7 +14065,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>992</v>
       </c>
@@ -14062,7 +14079,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>995</v>
       </c>
@@ -14076,7 +14093,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>998</v>
       </c>
@@ -14090,7 +14107,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>1001</v>
       </c>
@@ -14104,7 +14121,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>1005</v>
       </c>
@@ -14118,7 +14135,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>1008</v>
       </c>
@@ -14132,7 +14149,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>1011</v>
       </c>
@@ -14146,7 +14163,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>1014</v>
       </c>
@@ -14160,7 +14177,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>1017</v>
       </c>
@@ -14174,7 +14191,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>1020</v>
       </c>
@@ -14188,7 +14205,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>1023</v>
       </c>
@@ -14202,7 +14219,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>1026</v>
       </c>
@@ -14216,7 +14233,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>1029</v>
       </c>
@@ -14230,7 +14247,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>1032</v>
       </c>
@@ -14244,7 +14261,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>1035</v>
       </c>
@@ -14258,7 +14275,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>1038</v>
       </c>
@@ -14272,7 +14289,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>1041</v>
       </c>
@@ -14286,7 +14303,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>1044</v>
       </c>
@@ -14300,7 +14317,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>1047</v>
       </c>
@@ -14314,7 +14331,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>1050</v>
       </c>
@@ -14328,7 +14345,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>1053</v>
       </c>
@@ -14342,7 +14359,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>1056</v>
       </c>
@@ -14356,7 +14373,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>1059</v>
       </c>
@@ -14370,7 +14387,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>1062</v>
       </c>
@@ -14384,7 +14401,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>1065</v>
       </c>
@@ -14398,7 +14415,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>1069</v>
       </c>
@@ -14412,7 +14429,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>1072</v>
       </c>
@@ -14426,7 +14443,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>1075</v>
       </c>
@@ -14440,7 +14457,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>1078</v>
       </c>
@@ -14454,7 +14471,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>1081</v>
       </c>
@@ -14468,7 +14485,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>1084</v>
       </c>
@@ -14482,7 +14499,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>1087</v>
       </c>
@@ -14496,7 +14513,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>467</v>
       </c>
@@ -14510,7 +14527,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>625</v>
       </c>
@@ -14524,7 +14541,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>1090</v>
       </c>
@@ -14538,7 +14555,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>1093</v>
       </c>
@@ -14552,7 +14569,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>1096</v>
       </c>
@@ -14566,7 +14583,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>1099</v>
       </c>
@@ -14580,7 +14597,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>1102</v>
       </c>
@@ -14594,7 +14611,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>1105</v>
       </c>
@@ -14608,7 +14625,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>1108</v>
       </c>
@@ -14622,7 +14639,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>1111</v>
       </c>
@@ -14636,7 +14653,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>1114</v>
       </c>
@@ -14650,7 +14667,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>1117</v>
       </c>
@@ -14664,7 +14681,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>1120</v>
       </c>
@@ -14678,7 +14695,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>1123</v>
       </c>
@@ -14692,7 +14709,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>1126</v>
       </c>
@@ -14706,7 +14723,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>652</v>
       </c>
@@ -14720,7 +14737,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>1129</v>
       </c>
@@ -14734,7 +14751,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>1132</v>
       </c>
@@ -14748,7 +14765,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>1135</v>
       </c>
@@ -14762,7 +14779,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>1138</v>
       </c>
@@ -14776,7 +14793,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>1141</v>
       </c>
@@ -14790,7 +14807,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>1144</v>
       </c>
@@ -14804,7 +14821,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>1147</v>
       </c>
@@ -14818,7 +14835,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>1150</v>
       </c>
@@ -14832,7 +14849,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>811</v>
       </c>
@@ -14846,7 +14863,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>1153</v>
       </c>
@@ -14860,7 +14877,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>607</v>
       </c>
@@ -14874,7 +14891,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>1156</v>
       </c>
@@ -14888,7 +14905,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>1159</v>
       </c>
@@ -14902,7 +14919,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>1162</v>
       </c>
@@ -14916,7 +14933,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>1165</v>
       </c>
@@ -14930,7 +14947,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>1168</v>
       </c>
@@ -14944,7 +14961,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>1171</v>
       </c>
@@ -14958,7 +14975,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>1174</v>
       </c>
@@ -14972,7 +14989,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>1177</v>
       </c>
@@ -14986,7 +15003,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>1180</v>
       </c>
@@ -15000,7 +15017,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>1183</v>
       </c>
@@ -15014,7 +15031,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>1186</v>
       </c>
@@ -15028,7 +15045,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>1189</v>
       </c>
@@ -15042,7 +15059,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>1192</v>
       </c>
@@ -15056,7 +15073,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>1195</v>
       </c>
@@ -15070,7 +15087,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>1198</v>
       </c>
@@ -15084,7 +15101,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>1201</v>
       </c>
@@ -15098,7 +15115,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>1204</v>
       </c>
@@ -15112,7 +15129,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>1207</v>
       </c>
@@ -15126,7 +15143,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>1210</v>
       </c>
@@ -15140,7 +15157,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>1213</v>
       </c>
@@ -15154,7 +15171,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>1216</v>
       </c>
@@ -15168,7 +15185,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>1219</v>
       </c>
@@ -15182,7 +15199,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>1223</v>
       </c>
@@ -15196,7 +15213,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>1226</v>
       </c>
@@ -15210,7 +15227,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>1229</v>
       </c>
@@ -15224,7 +15241,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>1232</v>
       </c>
@@ -15238,7 +15255,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>1235</v>
       </c>
@@ -15252,7 +15269,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>1238</v>
       </c>
@@ -15266,7 +15283,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>1241</v>
       </c>
@@ -15280,7 +15297,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>1244</v>
       </c>
@@ -15294,7 +15311,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>1247</v>
       </c>
@@ -15308,7 +15325,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>1250</v>
       </c>
@@ -15322,7 +15339,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>1253</v>
       </c>
@@ -15336,7 +15353,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>1256</v>
       </c>
@@ -15350,7 +15367,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>1259</v>
       </c>
@@ -15364,7 +15381,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>1262</v>
       </c>
@@ -15378,7 +15395,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>634</v>
       </c>
@@ -15392,7 +15409,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>1265</v>
       </c>
@@ -15406,7 +15423,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>1268</v>
       </c>
@@ -15420,7 +15437,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>1271</v>
       </c>
@@ -15434,7 +15451,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>1274</v>
       </c>
@@ -15448,7 +15465,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>1277</v>
       </c>
@@ -15462,7 +15479,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>1280</v>
       </c>
@@ -15476,7 +15493,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>1283</v>
       </c>
@@ -15490,7 +15507,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>1286</v>
       </c>
@@ -15504,7 +15521,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>1289</v>
       </c>
@@ -15518,7 +15535,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>1292</v>
       </c>
@@ -15532,7 +15549,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>1295</v>
       </c>
@@ -15546,7 +15563,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>1298</v>
       </c>
@@ -15560,7 +15577,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>1301</v>
       </c>
@@ -15574,7 +15591,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>1304</v>
       </c>
@@ -15588,7 +15605,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>1307</v>
       </c>
@@ -15602,7 +15619,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>1311</v>
       </c>
@@ -15616,7 +15633,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>1314</v>
       </c>
@@ -15630,7 +15647,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>1317</v>
       </c>
@@ -15644,7 +15661,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>1320</v>
       </c>
@@ -15658,7 +15675,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>597</v>
       </c>
@@ -15672,7 +15689,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>1323</v>
       </c>
@@ -15686,7 +15703,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>1326</v>
       </c>
@@ -15700,7 +15717,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>1329</v>
       </c>
@@ -15714,7 +15731,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>1332</v>
       </c>
@@ -15728,7 +15745,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>1168</v>
       </c>
@@ -15742,7 +15759,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>1335</v>
       </c>
@@ -15756,7 +15773,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>1337</v>
       </c>
@@ -15770,7 +15787,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>1340</v>
       </c>
@@ -15784,7 +15801,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>1343</v>
       </c>
@@ -15798,7 +15815,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>1346</v>
       </c>
@@ -15812,7 +15829,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>1349</v>
       </c>
@@ -15826,7 +15843,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>1352</v>
       </c>
@@ -15840,7 +15857,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>1355</v>
       </c>
@@ -15854,7 +15871,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>1358</v>
       </c>
@@ -15868,7 +15885,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>1361</v>
       </c>
@@ -15882,7 +15899,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>1364</v>
       </c>
@@ -15896,7 +15913,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>1367</v>
       </c>
@@ -15910,7 +15927,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>1370</v>
       </c>
@@ -15924,7 +15941,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>1373</v>
       </c>
@@ -15938,7 +15955,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>1376</v>
       </c>
@@ -15952,7 +15969,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>1379</v>
       </c>
@@ -15966,7 +15983,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>1382</v>
       </c>
@@ -15980,7 +15997,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>1385</v>
       </c>
@@ -15994,7 +16011,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>1388</v>
       </c>
@@ -16008,7 +16025,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>1174</v>
       </c>
@@ -16022,7 +16039,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>1391</v>
       </c>
@@ -16036,7 +16053,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>1394</v>
       </c>
@@ -16050,7 +16067,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>1397</v>
       </c>
@@ -16064,7 +16081,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>1400</v>
       </c>
@@ -16078,7 +16095,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>1403</v>
       </c>
@@ -16092,7 +16109,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>1407</v>
       </c>
@@ -16106,7 +16123,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>1410</v>
       </c>
@@ -16120,7 +16137,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>1413</v>
       </c>
@@ -16134,7 +16151,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>1416</v>
       </c>
@@ -16148,7 +16165,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>1419</v>
       </c>
@@ -16162,7 +16179,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>1422</v>
       </c>
@@ -16176,7 +16193,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>1425</v>
       </c>
@@ -16190,7 +16207,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>1427</v>
       </c>
@@ -16204,7 +16221,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>1430</v>
       </c>
@@ -16218,7 +16235,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>1433</v>
       </c>
@@ -16232,7 +16249,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="486" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>1435</v>
       </c>
@@ -16246,7 +16263,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>1437</v>
       </c>
@@ -16260,7 +16277,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>1440</v>
       </c>
@@ -16274,7 +16291,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>1443</v>
       </c>
@@ -16288,7 +16305,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>1446</v>
       </c>
@@ -16302,7 +16319,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>1449</v>
       </c>
@@ -16316,7 +16333,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>1452</v>
       </c>
@@ -16330,7 +16347,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="493" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>1455</v>
       </c>
@@ -16344,7 +16361,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="494" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>1458</v>
       </c>
@@ -16358,7 +16375,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="495" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>1461</v>
       </c>
@@ -16372,7 +16389,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="496" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>1464</v>
       </c>
@@ -16386,7 +16403,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="497" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>1467</v>
       </c>
@@ -16400,7 +16417,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="498" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>1470</v>
       </c>
@@ -16414,7 +16431,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="499" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>1473</v>
       </c>
@@ -16428,7 +16445,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="500" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>1476</v>
       </c>
@@ -16442,7 +16459,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="501" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>1479</v>
       </c>
@@ -16456,7 +16473,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="502" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>1482</v>
       </c>
@@ -16470,7 +16487,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="503" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>1485</v>
       </c>
@@ -16484,7 +16501,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="504" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>1488</v>
       </c>
@@ -16498,7 +16515,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="505" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>1491</v>
       </c>
@@ -16512,7 +16529,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="506" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>1153</v>
       </c>
@@ -16526,7 +16543,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="507" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>1494</v>
       </c>
@@ -16540,7 +16557,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="508" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>1497</v>
       </c>
@@ -16554,7 +16571,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="509" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>1500</v>
       </c>
@@ -16568,7 +16585,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="510" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>1503</v>
       </c>
@@ -16582,7 +16599,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="511" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>1506</v>
       </c>
@@ -16596,7 +16613,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="512" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>1509</v>
       </c>
@@ -16610,7 +16627,7 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="513" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>1513</v>
       </c>
@@ -16624,7 +16641,7 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="514" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>1516</v>
       </c>
@@ -16638,7 +16655,7 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="515" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>1232</v>
       </c>
@@ -16652,7 +16669,7 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="516" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>1519</v>
       </c>
@@ -16666,7 +16683,7 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="517" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>1522</v>
       </c>
@@ -16680,7 +16697,7 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="518" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>1525</v>
       </c>
@@ -16694,7 +16711,7 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="519" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>1528</v>
       </c>
@@ -16708,7 +16725,7 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="520" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>1531</v>
       </c>
@@ -16722,7 +16739,7 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="521" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>1534</v>
       </c>
@@ -16736,7 +16753,7 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="522" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>1537</v>
       </c>
@@ -16750,7 +16767,7 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="523" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>1540</v>
       </c>
@@ -16764,7 +16781,7 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="524" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>1543</v>
       </c>
@@ -16778,7 +16795,7 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="525" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>1546</v>
       </c>
@@ -16792,7 +16809,7 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="526" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>1549</v>
       </c>
@@ -16806,7 +16823,7 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="527" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>1552</v>
       </c>
@@ -16820,7 +16837,7 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="528" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>1555</v>
       </c>
@@ -16834,7 +16851,7 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="529" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>1558</v>
       </c>
@@ -16848,7 +16865,7 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="530" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>1561</v>
       </c>
@@ -16862,7 +16879,7 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="531" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>1564</v>
       </c>
@@ -16876,7 +16893,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="532" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>1567</v>
       </c>
@@ -16890,7 +16907,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="533" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>1570</v>
       </c>
@@ -16904,7 +16921,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="534" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>1573</v>
       </c>
@@ -16918,7 +16935,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="535" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>1576</v>
       </c>
@@ -16932,7 +16949,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="536" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>1579</v>
       </c>
@@ -16946,7 +16963,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="537" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>1582</v>
       </c>
@@ -16960,7 +16977,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="538" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>1585</v>
       </c>
@@ -16974,7 +16991,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="539" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>1588</v>
       </c>
@@ -16988,7 +17005,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="540" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>1591</v>
       </c>
@@ -17002,7 +17019,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="541" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>1594</v>
       </c>
@@ -17016,7 +17033,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="542" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>1597</v>
       </c>
@@ -17030,7 +17047,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="543" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>1600</v>
       </c>
@@ -17044,7 +17061,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="544" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>1603</v>
       </c>
@@ -17058,7 +17075,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="545" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>1606</v>
       </c>
@@ -17072,7 +17089,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="546" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>1609</v>
       </c>
@@ -17086,7 +17103,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="547" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>1612</v>
       </c>
@@ -17100,7 +17117,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="548" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>1615</v>
       </c>
@@ -17114,7 +17131,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="549" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>1618</v>
       </c>
@@ -17128,7 +17145,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="550" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>1621</v>
       </c>
@@ -17142,7 +17159,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="551" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>1624</v>
       </c>
@@ -17156,7 +17173,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="552" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>1627</v>
       </c>
@@ -17170,7 +17187,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="553" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>1630</v>
       </c>
@@ -17184,7 +17201,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="554" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>1633</v>
       </c>
@@ -17198,7 +17215,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="555" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>1636</v>
       </c>
@@ -17212,7 +17229,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="556" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>1639</v>
       </c>
@@ -17226,7 +17243,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="557" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>1642</v>
       </c>
@@ -17240,7 +17257,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="558" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>1645</v>
       </c>
@@ -17254,7 +17271,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="559" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>1648</v>
       </c>
@@ -17268,7 +17285,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="560" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>1651</v>
       </c>
@@ -17282,7 +17299,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="561" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>1654</v>
       </c>
@@ -17296,7 +17313,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="562" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>1657</v>
       </c>
@@ -17310,7 +17327,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="563" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>1660</v>
       </c>
@@ -17324,7 +17341,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="564" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>1663</v>
       </c>
@@ -17338,7 +17355,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="565" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>1666</v>
       </c>
@@ -17352,7 +17369,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="566" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>1669</v>
       </c>
@@ -17366,7 +17383,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="567" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>1672</v>
       </c>
@@ -17380,7 +17397,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="568" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>1675</v>
       </c>
@@ -17394,7 +17411,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="569" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>1678</v>
       </c>
@@ -17408,7 +17425,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="570" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>1681</v>
       </c>
@@ -17422,7 +17439,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="571" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>1684</v>
       </c>
@@ -17436,7 +17453,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="572" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>1687</v>
       </c>
@@ -17450,7 +17467,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="573" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
         <v>1690</v>
       </c>
@@ -17464,7 +17481,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="574" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>1693</v>
       </c>
@@ -17478,7 +17495,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="575" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>1696</v>
       </c>
@@ -17492,7 +17509,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="576" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
         <v>1485</v>
       </c>
@@ -17506,7 +17523,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="577" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>1699</v>
       </c>
@@ -17520,7 +17537,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="578" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
         <v>1702</v>
       </c>
@@ -17534,7 +17551,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="579" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
         <v>1705</v>
       </c>
@@ -17548,7 +17565,7 @@
         <v>1708</v>
       </c>
     </row>
-    <row r="580" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
         <v>1709</v>
       </c>
@@ -17562,7 +17579,7 @@
         <v>1708</v>
       </c>
     </row>
-    <row r="581" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
         <v>1712</v>
       </c>
@@ -17576,7 +17593,7 @@
         <v>1708</v>
       </c>
     </row>
-    <row r="582" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
         <v>1715</v>
       </c>
@@ -17590,7 +17607,7 @@
         <v>1708</v>
       </c>
     </row>
-    <row r="583" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
         <v>1717</v>
       </c>
@@ -17604,7 +17621,7 @@
         <v>1708</v>
       </c>
     </row>
-    <row r="584" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
         <v>1720</v>
       </c>
@@ -17618,7 +17635,7 @@
         <v>1708</v>
       </c>
     </row>
-    <row r="585" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
         <v>1723</v>
       </c>
@@ -17632,7 +17649,7 @@
         <v>1708</v>
       </c>
     </row>
-    <row r="586" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
         <v>1726</v>
       </c>
@@ -17646,7 +17663,7 @@
         <v>1708</v>
       </c>
     </row>
-    <row r="587" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
         <v>1729</v>
       </c>
@@ -17660,7 +17677,7 @@
         <v>1708</v>
       </c>
     </row>
-    <row r="588" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
         <v>1732</v>
       </c>
@@ -17674,7 +17691,7 @@
         <v>1708</v>
       </c>
     </row>
-    <row r="589" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
         <v>1735</v>
       </c>
@@ -17688,7 +17705,7 @@
         <v>1708</v>
       </c>
     </row>
-    <row r="590" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
         <v>1738</v>
       </c>
@@ -17702,7 +17719,7 @@
         <v>1708</v>
       </c>
     </row>
-    <row r="591" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
         <v>1741</v>
       </c>
@@ -17716,7 +17733,7 @@
         <v>1708</v>
       </c>
     </row>
-    <row r="592" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
         <v>1744</v>
       </c>
@@ -17730,7 +17747,7 @@
         <v>1708</v>
       </c>
     </row>
-    <row r="593" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
         <v>1747</v>
       </c>
@@ -17744,7 +17761,7 @@
         <v>1708</v>
       </c>
     </row>
-    <row r="594" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
         <v>1750</v>
       </c>
@@ -17758,7 +17775,7 @@
         <v>1708</v>
       </c>
     </row>
-    <row r="595" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
         <v>1753</v>
       </c>
@@ -17772,7 +17789,7 @@
         <v>1708</v>
       </c>
     </row>
-    <row r="596" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
         <v>1756</v>
       </c>
@@ -17786,7 +17803,7 @@
         <v>1708</v>
       </c>
     </row>
-    <row r="597" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
         <v>1759</v>
       </c>
@@ -17800,7 +17817,7 @@
         <v>1708</v>
       </c>
     </row>
-    <row r="598" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
         <v>1762</v>
       </c>
@@ -17814,7 +17831,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="599" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
         <v>1766</v>
       </c>
@@ -17828,7 +17845,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="600" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
         <v>1769</v>
       </c>
@@ -17842,7 +17859,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="601" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
         <v>1772</v>
       </c>
@@ -17856,7 +17873,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="602" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
         <v>1775</v>
       </c>
@@ -17870,7 +17887,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="603" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
         <v>1778</v>
       </c>
@@ -17884,7 +17901,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="604" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
         <v>1781</v>
       </c>
@@ -17898,7 +17915,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="605" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
         <v>1784</v>
       </c>
@@ -17912,7 +17929,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="606" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
         <v>1787</v>
       </c>
@@ -17926,7 +17943,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="607" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
         <v>1789</v>
       </c>
@@ -17940,7 +17957,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="608" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
         <v>1567</v>
       </c>
@@ -17954,7 +17971,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="609" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
         <v>1793</v>
       </c>
@@ -17968,7 +17985,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="610" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
         <v>1796</v>
       </c>
@@ -17982,7 +17999,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="611" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
         <v>1799</v>
       </c>
@@ -17996,7 +18013,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="612" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
         <v>1802</v>
       </c>
@@ -18010,7 +18027,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="613" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
         <v>1805</v>
       </c>
@@ -18024,7 +18041,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="614" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
         <v>1808</v>
       </c>
@@ -18038,7 +18055,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="615" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
         <v>1811</v>
       </c>
@@ -18052,7 +18069,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="616" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
         <v>1814</v>
       </c>
@@ -18066,7 +18083,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="617" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
         <v>1817</v>
       </c>
@@ -18080,7 +18097,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="618" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
         <v>1820</v>
       </c>
@@ -18094,7 +18111,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="619" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
         <v>1823</v>
       </c>
@@ -18108,7 +18125,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="620" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
         <v>1826</v>
       </c>
@@ -18122,7 +18139,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="621" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
         <v>1829</v>
       </c>
@@ -18136,7 +18153,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="622" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
         <v>1832</v>
       </c>
@@ -18150,7 +18167,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="623" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
         <v>1835</v>
       </c>
@@ -18164,7 +18181,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="624" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
         <v>1838</v>
       </c>
@@ -18178,7 +18195,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="625" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
         <v>1841</v>
       </c>
@@ -18192,7 +18209,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="626" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
         <v>1844</v>
       </c>
@@ -18206,7 +18223,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="627" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
         <v>1847</v>
       </c>
@@ -18220,7 +18237,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="628" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
         <v>1850</v>
       </c>
@@ -18234,7 +18251,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="629" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
         <v>1853</v>
       </c>
@@ -18248,7 +18265,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="630" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
         <v>1856</v>
       </c>
@@ -18262,7 +18279,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="631" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
         <v>1859</v>
       </c>
@@ -18276,7 +18293,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="632" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
         <v>1862</v>
       </c>
@@ -18290,7 +18307,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="633" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
         <v>1865</v>
       </c>
@@ -18304,7 +18321,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="634" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
         <v>1868</v>
       </c>
@@ -18318,7 +18335,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="635" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
         <v>1871</v>
       </c>
@@ -18332,7 +18349,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="636" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
         <v>1874</v>
       </c>
@@ -18346,7 +18363,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="637" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
         <v>1877</v>
       </c>
@@ -18360,7 +18377,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="638" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
         <v>1880</v>
       </c>
@@ -18374,7 +18391,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="639" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
         <v>1883</v>
       </c>
@@ -18388,7 +18405,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="640" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
         <v>1886</v>
       </c>
@@ -18402,7 +18419,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="641" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
         <v>1889</v>
       </c>
@@ -18416,7 +18433,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="642" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
         <v>1892</v>
       </c>
@@ -18430,7 +18447,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="643" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
         <v>1895</v>
       </c>
@@ -18444,7 +18461,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="644" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
         <v>1898</v>
       </c>
@@ -18458,7 +18475,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="645" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
         <v>1901</v>
       </c>
@@ -18472,7 +18489,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="646" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
         <v>1904</v>
       </c>
@@ -18486,7 +18503,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="647" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
         <v>1907</v>
       </c>
@@ -18500,7 +18517,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="648" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
         <v>1910</v>
       </c>
@@ -18514,7 +18531,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="649" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
         <v>1913</v>
       </c>
@@ -18528,7 +18545,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="650" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
         <v>1916</v>
       </c>
@@ -18542,7 +18559,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="651" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
         <v>1919</v>
       </c>
@@ -18556,7 +18573,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="652" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
         <v>1922</v>
       </c>
@@ -18570,7 +18587,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="653" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
         <v>1925</v>
       </c>
@@ -18584,7 +18601,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="654" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A654" t="s">
         <v>1928</v>
       </c>
@@ -18598,7 +18615,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="655" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A655" t="s">
         <v>1931</v>
       </c>
@@ -18612,7 +18629,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="656" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
         <v>1934</v>
       </c>
@@ -18626,7 +18643,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="657" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
         <v>1937</v>
       </c>
@@ -18640,7 +18657,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="658" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A658" t="s">
         <v>1940</v>
       </c>
@@ -18654,7 +18671,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="659" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A659" t="s">
         <v>1943</v>
       </c>
@@ -18668,7 +18685,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="660" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A660" t="s">
         <v>1509</v>
       </c>
@@ -18682,7 +18699,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="661" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
         <v>1946</v>
       </c>
@@ -18696,7 +18713,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="662" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A662" t="s">
         <v>1949</v>
       </c>
@@ -18710,7 +18727,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="663" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
         <v>1952</v>
       </c>
@@ -18724,7 +18741,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="664" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A664" t="s">
         <v>1955</v>
       </c>
@@ -18738,7 +18755,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="665" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A665" t="s">
         <v>1958</v>
       </c>
@@ -18752,7 +18769,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="666" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A666" t="s">
         <v>1961</v>
       </c>
@@ -18766,7 +18783,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="667" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A667" t="s">
         <v>1964</v>
       </c>
@@ -18780,7 +18797,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="668" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A668" t="s">
         <v>1967</v>
       </c>
@@ -18794,7 +18811,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="669" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A669" t="s">
         <v>1141</v>
       </c>
@@ -18808,7 +18825,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="670" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A670" t="s">
         <v>1970</v>
       </c>
@@ -18822,7 +18839,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="671" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A671" t="s">
         <v>1973</v>
       </c>
@@ -18836,7 +18853,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="672" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
         <v>1976</v>
       </c>
@@ -18850,7 +18867,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="673" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A673" t="s">
         <v>1979</v>
       </c>
@@ -18864,7 +18881,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="674" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A674" t="s">
         <v>1982</v>
       </c>
@@ -18878,7 +18895,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="675" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A675" t="s">
         <v>1985</v>
       </c>
@@ -18892,7 +18909,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="676" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A676" t="s">
         <v>1988</v>
       </c>
@@ -18906,7 +18923,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="677" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A677" t="s">
         <v>1991</v>
       </c>
@@ -18920,7 +18937,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="678" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A678" t="s">
         <v>1994</v>
       </c>
@@ -18934,7 +18951,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="679" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A679" t="s">
         <v>1997</v>
       </c>
@@ -18948,7 +18965,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="680" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A680" t="s">
         <v>2000</v>
       </c>
@@ -18962,7 +18979,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="681" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A681" t="s">
         <v>2003</v>
       </c>
@@ -18976,7 +18993,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="682" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A682" t="s">
         <v>2006</v>
       </c>
@@ -18990,7 +19007,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="683" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
         <v>2009</v>
       </c>
@@ -19004,7 +19021,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="684" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A684" t="s">
         <v>2012</v>
       </c>
@@ -19018,7 +19035,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="685" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A685" t="s">
         <v>2015</v>
       </c>
@@ -19032,7 +19049,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="686" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A686" t="s">
         <v>2018</v>
       </c>
@@ -19046,7 +19063,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="687" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A687" t="s">
         <v>2021</v>
       </c>
@@ -19060,7 +19077,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="688" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A688" t="s">
         <v>2024</v>
       </c>
@@ -19074,7 +19091,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="689" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A689" t="s">
         <v>2027</v>
       </c>
@@ -19088,7 +19105,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="690" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A690" t="s">
         <v>2030</v>
       </c>
@@ -19102,7 +19119,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="691" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A691" t="s">
         <v>2033</v>
       </c>
@@ -19116,7 +19133,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="692" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A692" t="s">
         <v>2036</v>
       </c>
@@ -19130,7 +19147,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="693" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A693" t="s">
         <v>2039</v>
       </c>
@@ -19144,7 +19161,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="694" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A694" t="s">
         <v>2042</v>
       </c>
@@ -19158,7 +19175,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="695" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A695" t="s">
         <v>2045</v>
       </c>
@@ -19172,7 +19189,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="696" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A696" t="s">
         <v>2048</v>
       </c>
@@ -19186,7 +19203,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="697" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A697" t="s">
         <v>2051</v>
       </c>
@@ -19200,7 +19217,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="698" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A698" t="s">
         <v>2054</v>
       </c>
@@ -19214,7 +19231,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="699" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A699" t="s">
         <v>2057</v>
       </c>
@@ -19228,7 +19245,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="700" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A700" t="s">
         <v>2060</v>
       </c>
@@ -19242,7 +19259,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="701" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A701" t="s">
         <v>2063</v>
       </c>
@@ -19256,7 +19273,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="702" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A702" t="s">
         <v>2066</v>
       </c>
@@ -19270,7 +19287,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="703" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A703" t="s">
         <v>2069</v>
       </c>
@@ -19284,7 +19301,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="704" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A704" t="s">
         <v>2072</v>
       </c>
@@ -19298,7 +19315,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="705" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A705" t="s">
         <v>2075</v>
       </c>
@@ -19312,7 +19329,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="706" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A706" t="s">
         <v>2078</v>
       </c>
@@ -19326,7 +19343,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="707" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A707" t="s">
         <v>2081</v>
       </c>
@@ -19340,7 +19357,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="708" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A708" t="s">
         <v>2084</v>
       </c>
@@ -19354,7 +19371,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="709" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A709" t="s">
         <v>2087</v>
       </c>
@@ -19368,7 +19385,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="710" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A710" t="s">
         <v>2090</v>
       </c>
@@ -19382,7 +19399,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="711" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A711" t="s">
         <v>2093</v>
       </c>
@@ -19396,7 +19413,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="712" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A712" t="s">
         <v>2096</v>
       </c>
@@ -19410,7 +19427,7 @@
         <v>2099</v>
       </c>
     </row>
-    <row r="713" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A713" t="s">
         <v>2100</v>
       </c>
@@ -19424,7 +19441,7 @@
         <v>2099</v>
       </c>
     </row>
-    <row r="714" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A714" t="s">
         <v>2103</v>
       </c>
@@ -19438,7 +19455,7 @@
         <v>2099</v>
       </c>
     </row>
-    <row r="715" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A715" t="s">
         <v>2106</v>
       </c>
@@ -19452,7 +19469,7 @@
         <v>2099</v>
       </c>
     </row>
-    <row r="716" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A716" t="s">
         <v>2108</v>
       </c>
@@ -19466,7 +19483,7 @@
         <v>2099</v>
       </c>
     </row>
-    <row r="717" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A717" t="s">
         <v>2111</v>
       </c>
@@ -19480,7 +19497,7 @@
         <v>2099</v>
       </c>
     </row>
-    <row r="718" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A718" t="s">
         <v>2114</v>
       </c>
@@ -19494,7 +19511,7 @@
         <v>2099</v>
       </c>
     </row>
-    <row r="719" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A719" t="s">
         <v>2117</v>
       </c>
@@ -19508,7 +19525,7 @@
         <v>2099</v>
       </c>
     </row>
-    <row r="720" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A720" t="s">
         <v>2120</v>
       </c>
@@ -19522,7 +19539,7 @@
         <v>2099</v>
       </c>
     </row>
-    <row r="721" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A721" t="s">
         <v>2123</v>
       </c>
@@ -19536,7 +19553,7 @@
         <v>2099</v>
       </c>
     </row>
-    <row r="722" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A722" t="s">
         <v>2126</v>
       </c>
@@ -19550,7 +19567,7 @@
         <v>2099</v>
       </c>
     </row>
-    <row r="723" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A723" t="s">
         <v>2129</v>
       </c>
@@ -19564,7 +19581,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="724" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A724" t="s">
         <v>467</v>
       </c>
@@ -19578,7 +19595,7 @@
         <v>2099</v>
       </c>
     </row>
-    <row r="725" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A725" t="s">
         <v>2132</v>
       </c>
@@ -19592,7 +19609,7 @@
         <v>2099</v>
       </c>
     </row>
-    <row r="726" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A726" t="s">
         <v>2135</v>
       </c>
@@ -19606,7 +19623,7 @@
         <v>2099</v>
       </c>
     </row>
-    <row r="727" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A727" t="s">
         <v>2138</v>
       </c>
@@ -19620,7 +19637,7 @@
         <v>2099</v>
       </c>
     </row>
-    <row r="728" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A728" t="s">
         <v>2141</v>
       </c>
@@ -19634,7 +19651,7 @@
         <v>2099</v>
       </c>
     </row>
-    <row r="729" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A729" t="s">
         <v>2144</v>
       </c>
@@ -19648,7 +19665,7 @@
         <v>2099</v>
       </c>
     </row>
-    <row r="730" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A730" t="s">
         <v>2147</v>
       </c>
@@ -19662,7 +19679,7 @@
         <v>2099</v>
       </c>
     </row>
-    <row r="731" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A731" t="s">
         <v>2150</v>
       </c>
@@ -19676,7 +19693,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="732" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A732" t="s">
         <v>2153</v>
       </c>
@@ -19690,7 +19707,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="733" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A733" t="s">
         <v>2156</v>
       </c>
@@ -19704,7 +19721,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="734" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A734" t="s">
         <v>2159</v>
       </c>
@@ -19718,7 +19735,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="735" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A735" t="s">
         <v>2162</v>
       </c>
@@ -19732,7 +19749,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="736" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A736" t="s">
         <v>2165</v>
       </c>
@@ -19746,7 +19763,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="737" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A737" t="s">
         <v>2168</v>
       </c>
@@ -19760,7 +19777,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="738" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A738" t="s">
         <v>1078</v>
       </c>
@@ -19774,7 +19791,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="739" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A739" t="s">
         <v>604</v>
       </c>
@@ -19788,7 +19805,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="740" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A740" t="s">
         <v>1491</v>
       </c>
@@ -19802,7 +19819,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="741" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A741" t="s">
         <v>625</v>
       </c>
@@ -19816,7 +19833,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="742" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A742" t="s">
         <v>1102</v>
       </c>
@@ -19830,7 +19847,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="743" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A743" t="s">
         <v>1105</v>
       </c>
@@ -19844,7 +19861,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="744" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A744" t="s">
         <v>1120</v>
       </c>
@@ -19858,7 +19875,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="745" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A745" t="s">
         <v>2173</v>
       </c>
@@ -19872,7 +19889,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="746" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A746" t="s">
         <v>2176</v>
       </c>
@@ -19886,7 +19903,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="747" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A747" t="s">
         <v>2179</v>
       </c>
@@ -19900,7 +19917,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="748" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A748" t="s">
         <v>2182</v>
       </c>
@@ -19914,7 +19931,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="749" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A749" t="s">
         <v>2185</v>
       </c>
@@ -19928,7 +19945,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="750" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A750" t="s">
         <v>2188</v>
       </c>
@@ -19942,7 +19959,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="751" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A751" t="s">
         <v>2191</v>
       </c>
@@ -19956,7 +19973,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="752" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A752" t="s">
         <v>2194</v>
       </c>
@@ -19970,7 +19987,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="753" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A753" t="s">
         <v>2197</v>
       </c>
@@ -19984,7 +20001,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="754" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A754" t="s">
         <v>2200</v>
       </c>
@@ -19998,7 +20015,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="755" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A755" t="s">
         <v>2203</v>
       </c>
@@ -20012,7 +20029,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="756" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A756" t="s">
         <v>2206</v>
       </c>
@@ -20026,7 +20043,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="757" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A757" t="s">
         <v>2209</v>
       </c>
@@ -20040,7 +20057,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="758" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A758" t="s">
         <v>2212</v>
       </c>
@@ -20054,7 +20071,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="759" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A759" t="s">
         <v>2215</v>
       </c>
@@ -20068,7 +20085,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="760" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A760" t="s">
         <v>2218</v>
       </c>
@@ -20082,7 +20099,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="761" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A761" t="s">
         <v>2221</v>
       </c>
@@ -20096,7 +20113,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="762" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A762" t="s">
         <v>2224</v>
       </c>
@@ -20110,7 +20127,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="763" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A763" t="s">
         <v>2227</v>
       </c>
@@ -20124,7 +20141,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="764" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A764" t="s">
         <v>2230</v>
       </c>
@@ -20138,7 +20155,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="765" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A765" t="s">
         <v>2233</v>
       </c>
@@ -20152,7 +20169,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="766" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A766" t="s">
         <v>2236</v>
       </c>
@@ -20166,7 +20183,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="767" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A767" t="s">
         <v>2239</v>
       </c>
@@ -20180,7 +20197,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="768" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A768" t="s">
         <v>2242</v>
       </c>
@@ -20194,7 +20211,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="769" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A769" t="s">
         <v>2245</v>
       </c>
@@ -20208,7 +20225,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="770" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A770" t="s">
         <v>2248</v>
       </c>
@@ -20222,7 +20239,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="771" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A771" t="s">
         <v>2251</v>
       </c>
@@ -20236,7 +20253,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="772" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A772" t="s">
         <v>2254</v>
       </c>
@@ -20250,7 +20267,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="773" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A773" t="s">
         <v>2257</v>
       </c>
@@ -20264,7 +20281,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="774" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A774" t="s">
         <v>2260</v>
       </c>
@@ -20278,7 +20295,7 @@
         <v>2263</v>
       </c>
     </row>
-    <row r="775" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A775" t="s">
         <v>1138</v>
       </c>
@@ -20292,7 +20309,7 @@
         <v>2263</v>
       </c>
     </row>
-    <row r="776" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A776" t="s">
         <v>1075</v>
       </c>
@@ -20306,7 +20323,7 @@
         <v>2263</v>
       </c>
     </row>
-    <row r="777" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A777" t="s">
         <v>2264</v>
       </c>
@@ -20320,7 +20337,7 @@
         <v>2263</v>
       </c>
     </row>
-    <row r="778" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A778" t="s">
         <v>2267</v>
       </c>
@@ -20334,7 +20351,7 @@
         <v>2263</v>
       </c>
     </row>
-    <row r="779" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A779" t="s">
         <v>2270</v>
       </c>
@@ -20348,7 +20365,7 @@
         <v>2263</v>
       </c>
     </row>
-    <row r="780" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A780" t="s">
         <v>2273</v>
       </c>
@@ -20362,7 +20379,7 @@
         <v>2263</v>
       </c>
     </row>
-    <row r="781" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A781" t="s">
         <v>2276</v>
       </c>
@@ -20376,7 +20393,7 @@
         <v>2263</v>
       </c>
     </row>
-    <row r="782" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A782" t="s">
         <v>2279</v>
       </c>
@@ -20390,7 +20407,7 @@
         <v>2263</v>
       </c>
     </row>
-    <row r="783" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A783" t="s">
         <v>2282</v>
       </c>
@@ -20404,7 +20421,7 @@
         <v>2263</v>
       </c>
     </row>
-    <row r="784" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A784" t="s">
         <v>2285</v>
       </c>
@@ -20418,7 +20435,7 @@
         <v>2263</v>
       </c>
     </row>
-    <row r="785" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A785" t="s">
         <v>2288</v>
       </c>
@@ -20432,7 +20449,7 @@
         <v>2263</v>
       </c>
     </row>
-    <row r="786" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A786" t="s">
         <v>2291</v>
       </c>
@@ -20446,7 +20463,7 @@
         <v>2263</v>
       </c>
     </row>
-    <row r="787" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A787" t="s">
         <v>2294</v>
       </c>
@@ -20460,7 +20477,7 @@
         <v>2263</v>
       </c>
     </row>
-    <row r="788" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A788" t="s">
         <v>2297</v>
       </c>
@@ -20474,7 +20491,7 @@
         <v>2263</v>
       </c>
     </row>
-    <row r="789" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A789" t="s">
         <v>2300</v>
       </c>
@@ -20488,7 +20505,7 @@
         <v>2263</v>
       </c>
     </row>
-    <row r="790" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A790" t="s">
         <v>2303</v>
       </c>
@@ -20502,7 +20519,7 @@
         <v>2263</v>
       </c>
     </row>
-    <row r="791" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A791" t="s">
         <v>2306</v>
       </c>
@@ -20516,7 +20533,7 @@
         <v>2263</v>
       </c>
     </row>
-    <row r="792" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A792" t="s">
         <v>2309</v>
       </c>
@@ -20530,7 +20547,7 @@
         <v>2263</v>
       </c>
     </row>
-    <row r="793" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A793" t="s">
         <v>2312</v>
       </c>
@@ -20544,7 +20561,7 @@
         <v>2263</v>
       </c>
     </row>
-    <row r="794" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A794" t="s">
         <v>2315</v>
       </c>
@@ -20558,7 +20575,7 @@
         <v>2263</v>
       </c>
     </row>
-    <row r="795" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A795" t="s">
         <v>2318</v>
       </c>
@@ -20572,7 +20589,7 @@
         <v>2263</v>
       </c>
     </row>
-    <row r="796" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A796" t="s">
         <v>2321</v>
       </c>
@@ -20586,7 +20603,7 @@
         <v>2263</v>
       </c>
     </row>
-    <row r="797" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A797" t="s">
         <v>2324</v>
       </c>
@@ -20600,7 +20617,7 @@
         <v>2263</v>
       </c>
     </row>
-    <row r="798" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A798" t="s">
         <v>2327</v>
       </c>
@@ -20614,7 +20631,7 @@
         <v>2263</v>
       </c>
     </row>
-    <row r="799" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A799" t="s">
         <v>2330</v>
       </c>
@@ -20628,7 +20645,7 @@
         <v>2263</v>
       </c>
     </row>
-    <row r="800" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A800" t="s">
         <v>2333</v>
       </c>
@@ -20642,7 +20659,7 @@
         <v>2263</v>
       </c>
     </row>
-    <row r="801" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A801" t="s">
         <v>2336</v>
       </c>
@@ -20656,7 +20673,7 @@
         <v>2263</v>
       </c>
     </row>
-    <row r="802" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A802" t="s">
         <v>2339</v>
       </c>
@@ -20670,7 +20687,7 @@
         <v>2263</v>
       </c>
     </row>
-    <row r="803" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A803" t="s">
         <v>2342</v>
       </c>
@@ -20684,7 +20701,7 @@
         <v>2263</v>
       </c>
     </row>
-    <row r="804" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A804" t="s">
         <v>2345</v>
       </c>
@@ -20698,7 +20715,7 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="805" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A805" t="s">
         <v>2260</v>
       </c>
@@ -20712,7 +20729,7 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="806" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A806" t="s">
         <v>1072</v>
       </c>
@@ -20726,7 +20743,7 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="807" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A807" t="s">
         <v>2349</v>
       </c>
@@ -20740,7 +20757,7 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="808" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A808" t="s">
         <v>2352</v>
       </c>
@@ -20754,7 +20771,7 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="809" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A809" t="s">
         <v>1075</v>
       </c>
@@ -20768,7 +20785,7 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="810" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A810" t="s">
         <v>811</v>
       </c>
@@ -20782,7 +20799,7 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="811" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A811" t="s">
         <v>607</v>
       </c>
@@ -20796,7 +20813,7 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="812" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A812" t="s">
         <v>2356</v>
       </c>
@@ -20810,7 +20827,7 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="813" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A813" t="s">
         <v>640</v>
       </c>
@@ -20824,7 +20841,7 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="814" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A814" t="s">
         <v>649</v>
       </c>
@@ -20838,7 +20855,7 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="815" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A815" t="s">
         <v>471</v>
       </c>
@@ -20852,7 +20869,7 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="816" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A816" t="s">
         <v>2359</v>
       </c>
@@ -20866,7 +20883,7 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="817" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A817" t="s">
         <v>2362</v>
       </c>
@@ -20880,7 +20897,7 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="818" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A818" t="s">
         <v>2365</v>
       </c>
@@ -20894,7 +20911,7 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="819" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A819" t="s">
         <v>2368</v>
       </c>
@@ -20908,7 +20925,7 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="820" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A820" t="s">
         <v>2371</v>
       </c>
@@ -20922,7 +20939,7 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="821" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A821" t="s">
         <v>2374</v>
       </c>
@@ -20936,7 +20953,7 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="822" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A822" t="s">
         <v>2377</v>
       </c>
@@ -20950,7 +20967,7 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="823" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A823" t="s">
         <v>2380</v>
       </c>
@@ -20964,7 +20981,7 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="824" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A824" t="s">
         <v>2383</v>
       </c>
@@ -20978,7 +20995,7 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="825" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A825" t="s">
         <v>2386</v>
       </c>
@@ -20992,7 +21009,7 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="826" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A826" t="s">
         <v>2389</v>
       </c>
@@ -21006,7 +21023,7 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="827" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A827" t="s">
         <v>2392</v>
       </c>
@@ -21020,7 +21037,7 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="828" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A828" t="s">
         <v>2395</v>
       </c>
@@ -21034,7 +21051,7 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="829" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A829" t="s">
         <v>2398</v>
       </c>
@@ -21048,7 +21065,7 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="830" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A830" t="s">
         <v>2401</v>
       </c>
@@ -21062,7 +21079,7 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="831" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A831" t="s">
         <v>2404</v>
       </c>
@@ -21076,7 +21093,7 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="832" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A832" t="s">
         <v>2407</v>
       </c>
@@ -21090,7 +21107,7 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="833" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A833" t="s">
         <v>2410</v>
       </c>
@@ -21104,7 +21121,7 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="834" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A834" t="s">
         <v>2413</v>
       </c>
@@ -21118,7 +21135,7 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="835" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A835" t="s">
         <v>2416</v>
       </c>
@@ -21132,7 +21149,7 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="836" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A836" t="s">
         <v>2418</v>
       </c>
@@ -21146,7 +21163,7 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="837" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A837" t="s">
         <v>2421</v>
       </c>
@@ -21160,7 +21177,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="838" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A838" t="s">
         <v>2424</v>
       </c>
@@ -21174,7 +21191,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="839" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A839" t="s">
         <v>2427</v>
       </c>
@@ -21188,7 +21205,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="840" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A840" t="s">
         <v>2430</v>
       </c>
@@ -21202,7 +21219,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="841" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A841" t="s">
         <v>2433</v>
       </c>
@@ -21216,7 +21233,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="842" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A842" t="s">
         <v>2436</v>
       </c>
@@ -21230,7 +21247,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="843" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A843" t="s">
         <v>2438</v>
       </c>
@@ -21244,7 +21261,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="844" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A844" t="s">
         <v>2441</v>
       </c>
@@ -21258,7 +21275,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="845" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="845" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A845" t="s">
         <v>2444</v>
       </c>
@@ -21272,7 +21289,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="846" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A846" t="s">
         <v>2447</v>
       </c>
@@ -21286,7 +21303,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="847" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A847" t="s">
         <v>2450</v>
       </c>
@@ -21300,7 +21317,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="848" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="848" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A848" t="s">
         <v>2453</v>
       </c>
@@ -21314,7 +21331,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="849" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="849" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A849" t="s">
         <v>2456</v>
       </c>
@@ -21328,7 +21345,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="850" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="850" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A850" t="s">
         <v>2459</v>
       </c>
@@ -21342,7 +21359,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="851" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="851" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A851" t="s">
         <v>2462</v>
       </c>
@@ -21356,7 +21373,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="852" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="852" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A852" t="s">
         <v>2465</v>
       </c>
@@ -21370,7 +21387,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="853" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="853" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A853" t="s">
         <v>2468</v>
       </c>
@@ -21384,7 +21401,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="854" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="854" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A854" t="s">
         <v>2471</v>
       </c>
@@ -21398,7 +21415,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="855" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="855" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A855" t="s">
         <v>2474</v>
       </c>
@@ -21412,7 +21429,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="856" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="856" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A856" t="s">
         <v>2477</v>
       </c>
@@ -21426,7 +21443,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="857" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="857" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A857" t="s">
         <v>2480</v>
       </c>
@@ -21440,7 +21457,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="858" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="858" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A858" t="s">
         <v>2483</v>
       </c>
@@ -21454,7 +21471,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="859" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="859" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A859" t="s">
         <v>1522</v>
       </c>
@@ -21468,7 +21485,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="860" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="860" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A860" t="s">
         <v>2486</v>
       </c>
@@ -21482,7 +21499,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="861" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="861" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A861" t="s">
         <v>2489</v>
       </c>
@@ -21496,7 +21513,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="862" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="862" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A862" t="s">
         <v>2492</v>
       </c>
@@ -21510,7 +21527,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="863" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="863" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A863" t="s">
         <v>2495</v>
       </c>
@@ -21524,7 +21541,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="864" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="864" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A864" t="s">
         <v>2498</v>
       </c>
@@ -21538,7 +21555,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="865" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="865" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A865" t="s">
         <v>2501</v>
       </c>
@@ -21552,7 +21569,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="866" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="866" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A866" t="s">
         <v>2504</v>
       </c>
@@ -21566,7 +21583,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="867" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="867" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A867" t="s">
         <v>2507</v>
       </c>
@@ -21580,7 +21597,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="868" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="868" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A868" t="s">
         <v>2510</v>
       </c>
@@ -21594,7 +21611,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="869" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="869" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A869" t="s">
         <v>2513</v>
       </c>
@@ -21608,7 +21625,7 @@
         <v>1708</v>
       </c>
     </row>
-    <row r="870" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="870" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A870" t="s">
         <v>2516</v>
       </c>
@@ -21622,7 +21639,7 @@
         <v>1708</v>
       </c>
     </row>
-    <row r="871" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="871" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A871" t="s">
         <v>2519</v>
       </c>
@@ -21636,7 +21653,7 @@
         <v>1708</v>
       </c>
     </row>
-    <row r="872" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="872" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A872" t="s">
         <v>2522</v>
       </c>
@@ -21650,7 +21667,7 @@
         <v>1708</v>
       </c>
     </row>
-    <row r="873" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="873" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A873" t="s">
         <v>2525</v>
       </c>
@@ -21664,7 +21681,7 @@
         <v>1708</v>
       </c>
     </row>
-    <row r="874" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="874" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A874" t="s">
         <v>2528</v>
       </c>
@@ -21678,7 +21695,7 @@
         <v>1708</v>
       </c>
     </row>
-    <row r="875" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="875" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A875" t="s">
         <v>2531</v>
       </c>
@@ -21692,7 +21709,7 @@
         <v>1708</v>
       </c>
     </row>
-    <row r="876" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="876" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A876" t="s">
         <v>2534</v>
       </c>
@@ -21706,7 +21723,7 @@
         <v>1708</v>
       </c>
     </row>
-    <row r="877" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="877" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A877" t="s">
         <v>2537</v>
       </c>
@@ -21720,7 +21737,7 @@
         <v>1708</v>
       </c>
     </row>
-    <row r="878" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="878" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A878" t="s">
         <v>1973</v>
       </c>
@@ -21734,7 +21751,7 @@
         <v>1708</v>
       </c>
     </row>
-    <row r="879" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="879" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A879" t="s">
         <v>2540</v>
       </c>
@@ -21748,7 +21765,7 @@
         <v>1708</v>
       </c>
     </row>
-    <row r="880" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="880" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A880" t="s">
         <v>2543</v>
       </c>
@@ -21762,7 +21779,7 @@
         <v>1708</v>
       </c>
     </row>
-    <row r="881" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="881" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A881" t="s">
         <v>2546</v>
       </c>
@@ -21776,7 +21793,7 @@
         <v>1708</v>
       </c>
     </row>
-    <row r="882" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="882" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A882" t="s">
         <v>2549</v>
       </c>
@@ -21790,7 +21807,7 @@
         <v>1708</v>
       </c>
     </row>
-    <row r="883" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="883" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A883" t="s">
         <v>2552</v>
       </c>
@@ -21804,7 +21821,7 @@
         <v>1708</v>
       </c>
     </row>
-    <row r="884" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="884" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A884" t="s">
         <v>2555</v>
       </c>
@@ -21818,7 +21835,7 @@
         <v>1708</v>
       </c>
     </row>
-    <row r="885" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="885" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A885" t="s">
         <v>2558</v>
       </c>
@@ -21832,7 +21849,7 @@
         <v>1708</v>
       </c>
     </row>
-    <row r="886" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="886" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A886" t="s">
         <v>2561</v>
       </c>
@@ -21846,7 +21863,7 @@
         <v>1708</v>
       </c>
     </row>
-    <row r="887" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="887" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A887" t="s">
         <v>2564</v>
       </c>
@@ -21860,7 +21877,7 @@
         <v>1708</v>
       </c>
     </row>
-    <row r="888" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="888" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A888" t="s">
         <v>2567</v>
       </c>
@@ -21874,7 +21891,7 @@
         <v>1708</v>
       </c>
     </row>
-    <row r="889" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="889" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A889" t="s">
         <v>2570</v>
       </c>
@@ -21888,7 +21905,7 @@
         <v>1708</v>
       </c>
     </row>
-    <row r="890" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="890" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A890" t="s">
         <v>2573</v>
       </c>
@@ -21902,7 +21919,7 @@
         <v>1708</v>
       </c>
     </row>
-    <row r="891" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="891" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A891" t="s">
         <v>2576</v>
       </c>
@@ -21916,7 +21933,7 @@
         <v>1708</v>
       </c>
     </row>
-    <row r="892" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="892" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A892" t="s">
         <v>2579</v>
       </c>
@@ -21930,7 +21947,7 @@
         <v>1708</v>
       </c>
     </row>
-    <row r="893" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="893" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A893" t="s">
         <v>2582</v>
       </c>
@@ -21944,7 +21961,7 @@
         <v>1708</v>
       </c>
     </row>
-    <row r="894" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="894" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A894" t="s">
         <v>2585</v>
       </c>
@@ -21958,7 +21975,7 @@
         <v>1708</v>
       </c>
     </row>
-    <row r="895" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="895" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A895" t="s">
         <v>2588</v>
       </c>
@@ -21972,7 +21989,7 @@
         <v>1708</v>
       </c>
     </row>
-    <row r="896" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="896" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A896" t="s">
         <v>2591</v>
       </c>
@@ -21986,7 +22003,7 @@
         <v>1708</v>
       </c>
     </row>
-    <row r="897" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="897" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A897" t="s">
         <v>2594</v>
       </c>
@@ -22000,7 +22017,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="898" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="898" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A898" t="s">
         <v>2597</v>
       </c>
@@ -22014,7 +22031,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="899" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="899" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A899" t="s">
         <v>1865</v>
       </c>
@@ -22028,7 +22045,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="900" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="900" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A900" t="s">
         <v>2600</v>
       </c>
@@ -22042,7 +22059,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="901" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="901" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A901" t="s">
         <v>2603</v>
       </c>
@@ -22056,7 +22073,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="902" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="902" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A902" t="s">
         <v>1805</v>
       </c>
@@ -22070,7 +22087,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="903" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="903" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A903" t="s">
         <v>2606</v>
       </c>
@@ -22084,7 +22101,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="904" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="904" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A904" t="s">
         <v>1811</v>
       </c>
@@ -22098,7 +22115,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="905" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="905" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A905" t="s">
         <v>2609</v>
       </c>
@@ -22112,7 +22129,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="906" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="906" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A906" t="s">
         <v>2612</v>
       </c>
@@ -22126,7 +22143,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="907" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="907" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A907" t="s">
         <v>2615</v>
       </c>
@@ -22140,7 +22157,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="908" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="908" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A908" t="s">
         <v>2618</v>
       </c>
@@ -22154,7 +22171,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="909" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="909" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A909" t="s">
         <v>2621</v>
       </c>
@@ -22168,7 +22185,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="910" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="910" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A910" t="s">
         <v>2624</v>
       </c>
@@ -22182,7 +22199,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="911" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="911" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A911" t="s">
         <v>2627</v>
       </c>
@@ -22196,7 +22213,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="912" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="912" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A912" t="s">
         <v>1883</v>
       </c>
@@ -22210,7 +22227,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="913" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="913" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A913" t="s">
         <v>2630</v>
       </c>
@@ -22224,7 +22241,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="914" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="914" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A914" t="s">
         <v>2549</v>
       </c>
@@ -22238,7 +22255,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="915" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="915" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A915" t="s">
         <v>2632</v>
       </c>
@@ -22252,7 +22269,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="916" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="916" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A916" t="s">
         <v>1892</v>
       </c>
@@ -22266,7 +22283,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="917" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="917" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A917" t="s">
         <v>2636</v>
       </c>
@@ -22280,7 +22297,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="918" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="918" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A918" t="s">
         <v>2639</v>
       </c>
@@ -22294,7 +22311,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="919" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="919" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A919" t="s">
         <v>1895</v>
       </c>
@@ -22308,7 +22325,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="920" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="920" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A920" t="s">
         <v>1898</v>
       </c>
@@ -22322,7 +22339,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="921" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="921" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A921" t="s">
         <v>2643</v>
       </c>
@@ -22336,7 +22353,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="922" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="922" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A922" t="s">
         <v>2646</v>
       </c>
@@ -22350,7 +22367,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="923" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="923" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A923" t="s">
         <v>2648</v>
       </c>
@@ -22364,7 +22381,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="924" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="924" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A924" t="s">
         <v>2651</v>
       </c>
@@ -22378,7 +22395,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="925" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="925" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A925" t="s">
         <v>2654</v>
       </c>
@@ -22392,7 +22409,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="926" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="926" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A926" t="s">
         <v>1934</v>
       </c>
@@ -22406,7 +22423,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="927" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="927" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A927" t="s">
         <v>2658</v>
       </c>
@@ -22420,7 +22437,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="928" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="928" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A928" t="s">
         <v>2661</v>
       </c>
@@ -22434,7 +22451,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="929" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="929" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A929" t="s">
         <v>1772</v>
       </c>
@@ -22448,7 +22465,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="930" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="930" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A930" t="s">
         <v>1775</v>
       </c>
@@ -22462,7 +22479,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="931" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="931" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A931" t="s">
         <v>2664</v>
       </c>
@@ -22476,7 +22493,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="932" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="932" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A932" t="s">
         <v>2667</v>
       </c>
@@ -22490,7 +22507,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="933" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="933" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A933" t="s">
         <v>2670</v>
       </c>
@@ -22504,7 +22521,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="934" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="934" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A934" t="s">
         <v>1844</v>
       </c>
@@ -22518,7 +22535,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="935" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="935" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A935" t="s">
         <v>2673</v>
       </c>
@@ -22532,7 +22549,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="936" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="936" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A936" t="s">
         <v>2676</v>
       </c>
@@ -22546,7 +22563,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="937" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="937" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A937" t="s">
         <v>2588</v>
       </c>
@@ -22560,7 +22577,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="938" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="938" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A938" t="s">
         <v>2679</v>
       </c>
@@ -22574,7 +22591,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="939" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="939" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A939" t="s">
         <v>1850</v>
       </c>
@@ -22588,7 +22605,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="940" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="940" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A940" t="s">
         <v>1853</v>
       </c>
@@ -22602,7 +22619,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="941" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="941" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A941" t="s">
         <v>1856</v>
       </c>
@@ -22616,7 +22633,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="942" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="942" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A942" t="s">
         <v>1859</v>
       </c>
@@ -22630,7 +22647,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="943" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="943" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A943" t="s">
         <v>1862</v>
       </c>
@@ -22644,7 +22661,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="944" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="944" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A944" t="s">
         <v>1865</v>
       </c>
@@ -22658,7 +22675,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="945" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="945" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A945" t="s">
         <v>1868</v>
       </c>
@@ -22672,7 +22689,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="946" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="946" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A946" t="s">
         <v>1871</v>
       </c>
@@ -22686,7 +22703,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="947" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="947" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A947" t="s">
         <v>1874</v>
       </c>
@@ -22700,7 +22717,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="948" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="948" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A948" t="s">
         <v>1877</v>
       </c>
@@ -22714,7 +22731,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="949" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="949" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A949" t="s">
         <v>1880</v>
       </c>
@@ -22728,7 +22745,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="950" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="950" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A950" t="s">
         <v>1883</v>
       </c>
@@ -22742,7 +22759,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="951" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="951" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A951" t="s">
         <v>1886</v>
       </c>
@@ -22756,7 +22773,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="952" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="952" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A952" t="s">
         <v>1889</v>
       </c>
@@ -22770,7 +22787,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="953" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="953" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A953" t="s">
         <v>1892</v>
       </c>
@@ -22784,7 +22801,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="954" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="954" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A954" t="s">
         <v>1895</v>
       </c>
@@ -22798,7 +22815,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="955" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="955" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A955" t="s">
         <v>1898</v>
       </c>
@@ -22812,7 +22829,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="956" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="956" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A956" t="s">
         <v>1901</v>
       </c>
@@ -22826,7 +22843,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="957" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="957" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A957" t="s">
         <v>1904</v>
       </c>
@@ -22840,7 +22857,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="958" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="958" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A958" t="s">
         <v>1907</v>
       </c>
@@ -22854,7 +22871,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="959" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="959" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A959" t="s">
         <v>1910</v>
       </c>
@@ -22868,7 +22885,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="960" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="960" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A960" t="s">
         <v>1913</v>
       </c>
@@ -22882,7 +22899,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="961" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="961" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A961" t="s">
         <v>1916</v>
       </c>
@@ -22896,7 +22913,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="962" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="962" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A962" t="s">
         <v>1919</v>
       </c>
@@ -22910,7 +22927,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="963" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="963" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A963" t="s">
         <v>1922</v>
       </c>
@@ -22924,7 +22941,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="964" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="964" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A964" t="s">
         <v>1925</v>
       </c>
@@ -22938,7 +22955,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="965" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="965" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A965" t="s">
         <v>1928</v>
       </c>
@@ -22952,7 +22969,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="966" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="966" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A966" t="s">
         <v>1931</v>
       </c>
@@ -22966,7 +22983,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="967" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="967" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A967" t="s">
         <v>1934</v>
       </c>
@@ -22980,7 +22997,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="968" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="968" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A968" t="s">
         <v>1937</v>
       </c>
@@ -22994,7 +23011,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="969" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="969" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A969" t="s">
         <v>1940</v>
       </c>
@@ -23008,7 +23025,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="970" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="970" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A970" t="s">
         <v>1943</v>
       </c>
@@ -23022,7 +23039,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="971" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="971" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A971" t="s">
         <v>2682</v>
       </c>
@@ -23036,7 +23053,7 @@
         <v>2685</v>
       </c>
     </row>
-    <row r="972" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="972" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A972" t="s">
         <v>2686</v>
       </c>
@@ -23050,7 +23067,7 @@
         <v>2685</v>
       </c>
     </row>
-    <row r="973" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="973" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A973" t="s">
         <v>1162</v>
       </c>
@@ -23064,7 +23081,7 @@
         <v>2685</v>
       </c>
     </row>
-    <row r="974" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="974" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A974" t="s">
         <v>2689</v>
       </c>
@@ -23078,7 +23095,7 @@
         <v>2685</v>
       </c>
     </row>
-    <row r="975" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="975" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A975" t="s">
         <v>2692</v>
       </c>
@@ -23092,7 +23109,7 @@
         <v>2685</v>
       </c>
     </row>
-    <row r="976" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="976" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A976" t="s">
         <v>2695</v>
       </c>
@@ -23106,7 +23123,7 @@
         <v>2685</v>
       </c>
     </row>
-    <row r="977" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="977" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A977" t="s">
         <v>2698</v>
       </c>
@@ -23120,7 +23137,7 @@
         <v>2685</v>
       </c>
     </row>
-    <row r="978" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="978" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A978" t="s">
         <v>2701</v>
       </c>
@@ -23134,7 +23151,7 @@
         <v>2685</v>
       </c>
     </row>
-    <row r="979" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="979" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A979" t="s">
         <v>2704</v>
       </c>
@@ -23148,7 +23165,7 @@
         <v>2685</v>
       </c>
     </row>
-    <row r="980" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="980" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A980" t="s">
         <v>2707</v>
       </c>
@@ -23162,7 +23179,7 @@
         <v>2685</v>
       </c>
     </row>
-    <row r="981" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="981" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A981" t="s">
         <v>2710</v>
       </c>
@@ -23176,7 +23193,7 @@
         <v>2685</v>
       </c>
     </row>
-    <row r="982" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="982" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A982" t="s">
         <v>2713</v>
       </c>
@@ -23190,7 +23207,7 @@
         <v>2685</v>
       </c>
     </row>
-    <row r="983" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="983" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A983" t="s">
         <v>2716</v>
       </c>
@@ -23204,7 +23221,7 @@
         <v>2685</v>
       </c>
     </row>
-    <row r="984" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="984" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A984" t="s">
         <v>2719</v>
       </c>
@@ -23218,7 +23235,7 @@
         <v>2685</v>
       </c>
     </row>
-    <row r="985" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="985" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A985" t="s">
         <v>2722</v>
       </c>
@@ -23232,7 +23249,7 @@
         <v>2685</v>
       </c>
     </row>
-    <row r="986" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="986" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A986" t="s">
         <v>2725</v>
       </c>
@@ -23246,7 +23263,7 @@
         <v>2685</v>
       </c>
     </row>
-    <row r="987" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="987" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A987" t="s">
         <v>2728</v>
       </c>
@@ -23260,7 +23277,7 @@
         <v>2685</v>
       </c>
     </row>
-    <row r="988" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="988" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A988" t="s">
         <v>2731</v>
       </c>
@@ -23274,7 +23291,7 @@
         <v>2685</v>
       </c>
     </row>
-    <row r="989" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="989" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A989" t="s">
         <v>2734</v>
       </c>
@@ -23288,7 +23305,7 @@
         <v>2685</v>
       </c>
     </row>
-    <row r="990" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="990" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A990" t="s">
         <v>2737</v>
       </c>
@@ -23302,7 +23319,7 @@
         <v>2685</v>
       </c>
     </row>
-    <row r="991" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="991" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A991" t="s">
         <v>2740</v>
       </c>
@@ -23316,7 +23333,7 @@
         <v>2685</v>
       </c>
     </row>
-    <row r="992" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="992" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A992" t="s">
         <v>2743</v>
       </c>
@@ -23330,7 +23347,7 @@
         <v>2685</v>
       </c>
     </row>
-    <row r="993" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="993" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A993" t="s">
         <v>2746</v>
       </c>
@@ -23344,7 +23361,7 @@
         <v>2685</v>
       </c>
     </row>
-    <row r="994" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="994" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A994" t="s">
         <v>2749</v>
       </c>
@@ -23358,7 +23375,7 @@
         <v>2685</v>
       </c>
     </row>
-    <row r="995" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="995" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A995" t="s">
         <v>2752</v>
       </c>
@@ -23372,7 +23389,7 @@
         <v>2685</v>
       </c>
     </row>
-    <row r="996" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="996" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A996" t="s">
         <v>2755</v>
       </c>
@@ -23386,7 +23403,7 @@
         <v>2685</v>
       </c>
     </row>
-    <row r="997" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="997" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A997" t="s">
         <v>2758</v>
       </c>
@@ -23400,7 +23417,7 @@
         <v>2685</v>
       </c>
     </row>
-    <row r="998" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="998" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A998" t="s">
         <v>2761</v>
       </c>
@@ -23414,7 +23431,7 @@
         <v>2685</v>
       </c>
     </row>
-    <row r="999" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="999" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A999" t="s">
         <v>2764</v>
       </c>
@@ -23428,7 +23445,7 @@
         <v>2685</v>
       </c>
     </row>
-    <row r="1000" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1000" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1000" t="s">
         <v>2767</v>
       </c>
@@ -23442,7 +23459,7 @@
         <v>2685</v>
       </c>
     </row>
-    <row r="1001" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1001" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1001" t="s">
         <v>2770</v>
       </c>
@@ -23456,7 +23473,7 @@
         <v>2685</v>
       </c>
     </row>
-    <row r="1002" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1002" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1002" t="s">
         <v>2772</v>
       </c>
@@ -23470,7 +23487,7 @@
         <v>2685</v>
       </c>
     </row>
-    <row r="1003" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1003" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1003" t="s">
         <v>2775</v>
       </c>
@@ -23484,7 +23501,7 @@
         <v>2685</v>
       </c>
     </row>
-    <row r="1004" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1004" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1004" t="s">
         <v>2778</v>
       </c>
@@ -23498,7 +23515,7 @@
         <v>2685</v>
       </c>
     </row>
-    <row r="1005" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1005" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1005" t="s">
         <v>2781</v>
       </c>
@@ -23512,7 +23529,7 @@
         <v>2685</v>
       </c>
     </row>
-    <row r="1006" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1006" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1006" t="s">
         <v>2784</v>
       </c>
@@ -23526,7 +23543,7 @@
         <v>2685</v>
       </c>
     </row>
-    <row r="1007" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1007" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1007" t="s">
         <v>2787</v>
       </c>
@@ -23540,7 +23557,7 @@
         <v>2685</v>
       </c>
     </row>
-    <row r="1008" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1008" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1008" t="s">
         <v>2790</v>
       </c>
@@ -23554,7 +23571,7 @@
         <v>2685</v>
       </c>
     </row>
-    <row r="1009" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1009" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1009" t="s">
         <v>2793</v>
       </c>
@@ -23568,7 +23585,7 @@
         <v>2685</v>
       </c>
     </row>
-    <row r="1010" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1010" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1010" t="s">
         <v>2796</v>
       </c>
@@ -23582,7 +23599,7 @@
         <v>2685</v>
       </c>
     </row>
-    <row r="1011" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1011" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1011" t="s">
         <v>652</v>
       </c>
@@ -23596,7 +23613,7 @@
         <v>2685</v>
       </c>
     </row>
-    <row r="1012" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1012" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1012" t="s">
         <v>2799</v>
       </c>
@@ -23610,7 +23627,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="1013" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1013" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1013" t="s">
         <v>2802</v>
       </c>
@@ -23624,7 +23641,7 @@
         <v>2685</v>
       </c>
     </row>
-    <row r="1014" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1014" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1014" t="s">
         <v>2805</v>
       </c>
@@ -23638,7 +23655,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="1015" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1015" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1015" t="s">
         <v>2808</v>
       </c>
@@ -23652,7 +23669,7 @@
         <v>2685</v>
       </c>
     </row>
-    <row r="1016" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1016" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1016" t="s">
         <v>2811</v>
       </c>
@@ -23666,7 +23683,7 @@
         <v>2685</v>
       </c>
     </row>
-    <row r="1017" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1017" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1017" t="s">
         <v>2814</v>
       </c>
@@ -23680,7 +23697,7 @@
         <v>2685</v>
       </c>
     </row>
-    <row r="1018" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1018" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1018" t="s">
         <v>2817</v>
       </c>
@@ -23694,7 +23711,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="1019" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1019" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1019" t="s">
         <v>2820</v>
       </c>
@@ -23708,7 +23725,7 @@
         <v>2685</v>
       </c>
     </row>
-    <row r="1020" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1020" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1020" t="s">
         <v>2823</v>
       </c>
@@ -23722,7 +23739,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="1021" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1021" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1021" t="s">
         <v>2826</v>
       </c>
@@ -23736,7 +23753,7 @@
         <v>2685</v>
       </c>
     </row>
-    <row r="1022" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1022" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1022" t="s">
         <v>2829</v>
       </c>
@@ -23750,7 +23767,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="1023" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1023" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1023" t="s">
         <v>2832</v>
       </c>
@@ -23764,7 +23781,7 @@
         <v>2685</v>
       </c>
     </row>
-    <row r="1024" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1024" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1024" t="s">
         <v>2835</v>
       </c>
@@ -23778,7 +23795,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="1025" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1025" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1025" t="s">
         <v>2838</v>
       </c>
@@ -23792,7 +23809,7 @@
         <v>2685</v>
       </c>
     </row>
-    <row r="1026" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1026" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1026" t="s">
         <v>2841</v>
       </c>
@@ -23806,7 +23823,7 @@
         <v>2685</v>
       </c>
     </row>
-    <row r="1027" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1027" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1027" t="s">
         <v>2844</v>
       </c>
@@ -23820,7 +23837,7 @@
         <v>2685</v>
       </c>
     </row>
-    <row r="1028" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1028" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1028" t="s">
         <v>2847</v>
       </c>
@@ -23834,7 +23851,7 @@
         <v>2685</v>
       </c>
     </row>
-    <row r="1029" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1029" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1029" t="s">
         <v>2850</v>
       </c>
@@ -23848,7 +23865,7 @@
         <v>2685</v>
       </c>
     </row>
-    <row r="1030" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1030" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1030" t="s">
         <v>2853</v>
       </c>
@@ -23862,7 +23879,7 @@
         <v>2685</v>
       </c>
     </row>
-    <row r="1031" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1031" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1031" t="s">
         <v>2856</v>
       </c>
@@ -23876,7 +23893,7 @@
         <v>2685</v>
       </c>
     </row>
-    <row r="1032" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1032" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1032" t="s">
         <v>2859</v>
       </c>
@@ -23890,7 +23907,7 @@
         <v>2685</v>
       </c>
     </row>
-    <row r="1033" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1033" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1033" t="s">
         <v>2862</v>
       </c>
@@ -23904,7 +23921,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="1034" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1034" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1034" t="s">
         <v>2865</v>
       </c>
@@ -23918,7 +23935,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="1035" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1035" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1035" t="s">
         <v>2868</v>
       </c>
@@ -23932,7 +23949,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="1036" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1036" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1036" t="s">
         <v>2871</v>
       </c>
@@ -23946,7 +23963,7 @@
         <v>2685</v>
       </c>
     </row>
-    <row r="1037" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1037" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1037" t="s">
         <v>2874</v>
       </c>
@@ -23960,7 +23977,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="1038" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1038" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1038" t="s">
         <v>2877</v>
       </c>
@@ -23974,7 +23991,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="1039" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1039" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1039" t="s">
         <v>2880</v>
       </c>
@@ -23988,7 +24005,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="1040" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1040" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1040" t="s">
         <v>2883</v>
       </c>
@@ -24002,7 +24019,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="1041" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1041" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1041" t="s">
         <v>2886</v>
       </c>
@@ -24016,7 +24033,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="1042" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1042" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1042" t="s">
         <v>2889</v>
       </c>
@@ -24030,7 +24047,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="1043" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1043" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1043" t="s">
         <v>2892</v>
       </c>
@@ -24044,7 +24061,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="1044" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1044" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1044" t="s">
         <v>2895</v>
       </c>
@@ -24058,7 +24075,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="1045" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1045" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1045" t="s">
         <v>2898</v>
       </c>
@@ -24072,7 +24089,7 @@
         <v>2685</v>
       </c>
     </row>
-    <row r="1046" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1046" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1046" t="s">
         <v>2901</v>
       </c>
@@ -24086,7 +24103,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="1047" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1047" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1047" t="s">
         <v>2904</v>
       </c>
@@ -24100,7 +24117,7 @@
         <v>2685</v>
       </c>
     </row>
-    <row r="1048" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1048" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1048" t="s">
         <v>2907</v>
       </c>
@@ -24114,7 +24131,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="1049" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1049" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1049" t="s">
         <v>2910</v>
       </c>
@@ -24128,7 +24145,7 @@
         <v>2685</v>
       </c>
     </row>
-    <row r="1050" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1050" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1050" t="s">
         <v>2093</v>
       </c>
@@ -24142,7 +24159,7 @@
         <v>2685</v>
       </c>
     </row>
-    <row r="1051" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1051" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1051" t="s">
         <v>2913</v>
       </c>
@@ -24156,7 +24173,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="1052" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1052" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1052" t="s">
         <v>1419</v>
       </c>
@@ -24170,7 +24187,7 @@
         <v>2685</v>
       </c>
     </row>
-    <row r="1053" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1053" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1053" t="s">
         <v>2916</v>
       </c>
@@ -24184,7 +24201,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="1054" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1054" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1054" t="s">
         <v>2919</v>
       </c>
@@ -24198,7 +24215,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="1055" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1055" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1055" t="s">
         <v>2922</v>
       </c>
@@ -24212,7 +24229,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="1056" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1056" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1056" t="s">
         <v>2925</v>
       </c>
@@ -24226,7 +24243,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="1057" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1057" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1057" t="s">
         <v>2928</v>
       </c>
@@ -24240,7 +24257,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="1058" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1058" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1058" t="s">
         <v>2931</v>
       </c>
@@ -24254,7 +24271,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="1059" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1059" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1059" t="s">
         <v>2934</v>
       </c>
@@ -24268,7 +24285,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="1060" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1060" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1060" t="s">
         <v>2937</v>
       </c>
@@ -24282,7 +24299,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="1061" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1061" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1061" t="s">
         <v>2772</v>
       </c>
@@ -24296,7 +24313,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="1062" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1062" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1062" t="s">
         <v>2940</v>
       </c>
@@ -24310,7 +24327,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="1063" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1063" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1063" t="s">
         <v>2943</v>
       </c>
@@ -24324,7 +24341,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="1064" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1064" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1064" t="s">
         <v>2946</v>
       </c>
@@ -24338,7 +24355,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="1065" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1065" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1065" t="s">
         <v>2910</v>
       </c>
@@ -24352,7 +24369,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="1066" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1066" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1066" t="s">
         <v>2949</v>
       </c>
@@ -24366,7 +24383,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="1067" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1067" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1067" t="s">
         <v>2952</v>
       </c>
@@ -24380,7 +24397,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="1068" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1068" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1068" t="s">
         <v>2955</v>
       </c>
@@ -24394,7 +24411,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="1069" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1069" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1069" t="s">
         <v>2958</v>
       </c>
@@ -24408,7 +24425,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="1070" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1070" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1070" t="s">
         <v>2960</v>
       </c>
@@ -24422,7 +24439,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="1071" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1071" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1071" t="s">
         <v>2963</v>
       </c>
@@ -24436,7 +24453,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="1072" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1072" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1072" t="s">
         <v>2966</v>
       </c>
@@ -24450,7 +24467,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="1073" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1073" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1073" t="s">
         <v>2969</v>
       </c>
@@ -24464,7 +24481,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="1074" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1074" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1074" t="s">
         <v>2972</v>
       </c>
@@ -24478,7 +24495,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="1075" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1075" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1075" t="s">
         <v>2975</v>
       </c>
@@ -24492,7 +24509,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="1076" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1076" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1076" t="s">
         <v>2978</v>
       </c>
@@ -24506,7 +24523,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="1077" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1077" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1077" t="s">
         <v>2981</v>
       </c>
@@ -24520,7 +24537,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="1078" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1078" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1078" t="s">
         <v>2984</v>
       </c>
@@ -24534,7 +24551,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="1079" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1079" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1079" t="s">
         <v>2987</v>
       </c>
@@ -24548,7 +24565,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="1080" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1080" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1080" t="s">
         <v>2740</v>
       </c>
@@ -24562,7 +24579,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="1081" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1081" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1081" t="s">
         <v>2990</v>
       </c>
@@ -24576,7 +24593,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="1082" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1082" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1082" t="s">
         <v>2993</v>
       </c>
@@ -24590,7 +24607,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="1083" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1083" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1083" t="s">
         <v>2996</v>
       </c>
@@ -24604,7 +24621,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="1084" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1084" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1084" t="s">
         <v>2999</v>
       </c>
@@ -24618,7 +24635,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="1085" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1085" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1085" t="s">
         <v>3002</v>
       </c>
@@ -24632,7 +24649,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="1086" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1086" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1086" t="s">
         <v>3005</v>
       </c>
@@ -24646,7 +24663,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="1087" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1087" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1087" t="s">
         <v>3008</v>
       </c>
@@ -24660,7 +24677,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="1088" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1088" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1088" t="s">
         <v>3011</v>
       </c>
@@ -24674,7 +24691,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="1089" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1089" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1089" t="s">
         <v>3014</v>
       </c>
@@ -24688,7 +24705,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="1090" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1090" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1090" t="s">
         <v>3017</v>
       </c>
@@ -24699,8 +24716,25 @@
         <v>113</v>
       </c>
     </row>
+    <row r="1091" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1091" t="s">
+        <v>1609</v>
+      </c>
+      <c r="B1091" t="s">
+        <v>3019</v>
+      </c>
+      <c r="C1091" t="s">
+        <v>3020</v>
+      </c>
+      <c r="D1091" s="1" t="s">
+        <v>1004</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>